--- a/docs/ErrorAnalyseMissclassification.xlsx
+++ b/docs/ErrorAnalyseMissclassification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ZHAW\MSc WI Studium\Semester 3 HS22\aF&amp;E\Projekt\afeII-hs2021-project-sunspotter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5A852-EF41-4D5E-9B24-BD277308654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF6A79A-7565-4295-A395-F12B38CAE646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{C7B0463E-812F-440E-8E27-6730F45DA4B3}"/>
   </bookViews>
@@ -6787,11 +6787,11 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="str">
-        <f t="shared" ref="A8:A36" si="0">LEFT(B7, SEARCH(" ",B7,1)-1)</f>
+        <f t="shared" ref="A8:A34" si="0">LEFT(B7, SEARCH(" ",B7,1)-1)</f>
         <v>notSunny/1_2020-10-21_12-00-00.jpg</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" ref="B8:B36" si="1">RIGHT(B7, LEN(B7)-SEARCH(" ",B7,1))</f>
+        <f t="shared" ref="B8:B33" si="1">RIGHT(B7, LEN(B7)-SEARCH(" ",B7,1))</f>
         <v>notSunny/1_2020-10-29_12-00-00.jpg notSunny/1_2020-11-01_12-00-00.jpg notSunny/1_2020-12-15_12-00-00.jpg notSunny/1_2021-01-12_12-00-00.jpg notSunny/1_2021-01-13_12-00-00.jpg notSunny/1_2021-02-01_12-00-00.jpg notSunny/1_2021-02-02_12-00-00.jpg notSunny/1_2021-03-03_12-00-00.jpg notSunny/1_2021-03-04_12-00-00.jpg notSunny/1_2021-03-11_12-00-00.jpg notSunny/1_2021-03-12_12-00-00.jpg notSunny/1_2021-04-05_12-00-00.jpg notSunny/1_2021-04-26_12-00-00.jpg notSunny/1_2021-04-27_12-00-00.jpg notSunny/1_2021-05-05_12-00-00.jpg notSunny/1_2021-05-10_12-00-00.jpg notSunny/1_2021-05-29_12-00-00.jpg notSunny/2_2020-07-15_12-00-00.jpg notSunny/2_2020-08-02_12-00-00.jpg notSunny/2_2020-08-13_12-00-00.jpg notSunny/2_2020-10-08_12-00-00.jpg sunny/1_2020-09-25_12-00-00.jpg sunny/1_2020-10-05_12-00-00.jpg sunny/1_2020-10-16_12-00-rainy.jpg sunny/1_2020-10-24_12-00-00.jpg sunny/1_2021-04-07_12-00-00.jpg</v>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7384,11 +7384,11 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="str">
-        <f t="shared" ref="A7:A58" si="0">LEFT(B6, SEARCH("\n",B6,1)-1)</f>
+        <f t="shared" ref="A7:A48" si="0">LEFT(B6, SEARCH("\n",B6,1)-1)</f>
         <v>notSunny\\1_2020-10-20_12-00-00.jpg</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B58" si="1">RIGHT(B6,LEN(B6)-SEARCH("\n",B6,1)-1)</f>
+        <f t="shared" ref="B7:B48" si="1">RIGHT(B6,LEN(B6)-SEARCH("\n",B6,1)-1)</f>
         <v>notSunny\\1_2020-10-21_12-00-00.jpg\nnotSunny\\1_2020-10-29_12-00-00.jpg\nnotSunny\\1_2020-11-01_12-00-00.jpg\nnotSunny\\1_2020-12-03_12-00-00.jpg\nnotSunny\\1_2020-12-11_12-00-00.jpg\nnotSunny\\1_2020-12-12_12-00-00.jpg\nnotSunny\\1_2020-12-15_12-00-00.jpg\nnotSunny\\1_2020-12-20_12-00-00.jpg\nnotSunny\\1_2020-12-21_12-00-00.jpg\nnotSunny\\1_2021-01-01_12-00-00.jpg\nnotSunny\\1_2021-01-02_12-00-00.jpg\nnotSunny\\1_2021-01-12_12-00-00.jpg\nnotSunny\\1_2021-01-13_12-00-00.jpg\nnotSunny\\1_2021-01-30_12-00-00.jpg\nnotSunny\\1_2021-01-31_12-00-00.jpg\nnotSunny\\1_2021-02-01_12-00-00.jpg\nnotSunny\\1_2021-02-02_12-00-00.jpg\nnotSunny\\1_2021-02-09_12-00-00.jpg\nnotSunny\\1_2021-02-12_12-00-00.jpg\nnotSunny\\1_2021-03-03_12-00-00.jpg\nnotSunny\\1_2021-03-04_12-00-00.jpg\nnotSunny\\1_2021-03-11_12-00-00.jpg\nnotSunny\\1_2021-03-12_12-00-00.jpg\nnotSunny\\1_2021-04-05_12-00-00.jpg\nnotSunny\\1_2021-04-26_12-00-00.jpg\nnotSunny\\1_2021-04-27_12-00-00.jpg\nnotSunny\\1_2021-05-05_12-00-00.jpg\nnotSunny\\1_2021-05-10_12-00-00.jpg\nnotSunny\\1_2021-05-29_12-00-00.jpg\nnotSunny\\2_2020-07-04_12-00-00.jpg\nnotSunny\\2_2020-07-15_12-00-00.jpg\nnotSunny\\2_2020-08-02_12-00-00.jpg\nnotSunny\\2_2020-08-13_12-00-00.jpg\nnotSunny\\2_2020-08-22_12-00-00.jpg\nnotSunny\\2_2020-09-30_12-00-00.jpg\nnotSunny\\2_2020-10-08_12-00-00.jpg\nsunny\\1_2020-09-25_12-00-00.jpg\nsunny\\1_2020-10-05_12-00-00.jpg\nsunny\\1_2020-10-16_12-00-rainy.jpg\nsunny\\1_2020-10-24_12-00-00.jpg\nsunny\\1_2021-04-07_12-00-00.jpg\n</v>
       </c>
     </row>
